--- a/IPC2024_base2010/indprod_2_2024.xlsx
+++ b/IPC2024_base2010/indprod_2_2024.xlsx
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>189.8520049376112</v>
+        <v>189.7095920183973</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>153.7471161922329</v>
+        <v>154.6992633993971</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>356.9240856724249</v>
+        <v>356.8766439143681</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>489.5130968734986</v>
+        <v>489.8041170464701</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>550.5826475895069</v>
+        <v>482.1600377984956</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
       <c r="D56">
-        <v>182.3046927117145</v>
+        <v>177.7472556722856</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>155.1761702225236</v>
+        <v>155.2343508646915</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>70</v>
       </c>
       <c r="D60">
-        <v>670.75218514448</v>
+        <v>676.7577707240155</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>72</v>
       </c>
       <c r="D62">
-        <v>364.9171806017251</v>
+        <v>405.4275910558132</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>120.1064453384246</v>
+        <v>122.7845408301321</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="D77">
-        <v>117.8377062929355</v>
+        <v>119.5469437716674</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2336,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="D78">
-        <v>136.5220759967912</v>
+        <v>144.5795895666976</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2588,7 +2588,7 @@
         <v>106</v>
       </c>
       <c r="D96">
-        <v>138.896635859255</v>
+        <v>135.0704277086681</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.044649456182</v>
+        <v>120.1358863118316</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>134.3648591317856</v>
+        <v>134.3166925261631</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2938,7 +2938,7 @@
         <v>131</v>
       </c>
       <c r="D121">
-        <v>147.293026549801</v>
+        <v>145.8252403796341</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>129.749472004551</v>
+        <v>130.2172767278134</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>158.2987238025991</v>
+        <v>148.0923110043094</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3190,7 +3190,7 @@
         <v>149</v>
       </c>
       <c r="D139">
-        <v>128.9559589058384</v>
+        <v>125.4937904957075</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3218,7 +3218,7 @@
         <v>151</v>
       </c>
       <c r="D141">
-        <v>135.6540476388257</v>
+        <v>137.9186992554033</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3274,7 +3274,7 @@
         <v>155</v>
       </c>
       <c r="D145">
-        <v>138.5356408694001</v>
+        <v>137.0328628549107</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>134.1355720539999</v>
+        <v>126.3930833191464</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>125.8265098523413</v>
+        <v>128.2053305283441</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3442,7 +3442,7 @@
         <v>167</v>
       </c>
       <c r="D157">
-        <v>132.3386706271776</v>
+        <v>133.8458597992697</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>93.46063553284237</v>
+        <v>90.7536635387189</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4184,7 +4184,7 @@
         <v>220</v>
       </c>
       <c r="D210">
-        <v>95.11240778678798</v>
+        <v>94.99295416406622</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>83.24123278528683</v>
+        <v>80.8432434223604</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>120.5027467771931</v>
+        <v>117.2368040676977</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4324,7 +4324,7 @@
         <v>230</v>
       </c>
       <c r="D220">
-        <v>114.7323575508408</v>
+        <v>138.4421307273663</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>109.5924861325384</v>
+        <v>110.8793417852435</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>195.1840192005957</v>
+        <v>196.2390679530313</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>122.1408327782662</v>
+        <v>127.5152803314523</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>126.7183270449411</v>
+        <v>127.7526861441812</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>228.9405409952795</v>
+        <v>228.6600805786641</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>112.3364558513073</v>
+        <v>112.8978245469633</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4828,7 +4828,7 @@
         <v>266</v>
       </c>
       <c r="D256">
-        <v>151.0135368666566</v>
+        <v>149.4040711760697</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>131.8897223108406</v>
+        <v>125.4347699695425</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>127.4768366701283</v>
+        <v>138.1963120556514</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5038,7 +5038,7 @@
         <v>281</v>
       </c>
       <c r="D271">
-        <v>106.8745260369328</v>
+        <v>115.3898541983911</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>119.7225796332061</v>
+        <v>120.876543321771</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5066,7 +5066,7 @@
         <v>283</v>
       </c>
       <c r="D273">
-        <v>110.3445067453738</v>
+        <v>109.1150255003804</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>141.1194907667752</v>
+        <v>124.9681967850001</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>173.0233630742493</v>
+        <v>172.8506696155764</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.2677458715782</v>
+        <v>144.7451754239836</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>152.6390652093107</v>
+        <v>152.5469337023304</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>321.2105719680852</v>
+        <v>321.293530985801</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5766,7 +5766,7 @@
         <v>54</v>
       </c>
       <c r="D323">
-        <v>377.9212125960071</v>
+        <v>330.9557737569658</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5934,7 +5934,7 @@
         <v>66</v>
       </c>
       <c r="D335">
-        <v>190.1515172579898</v>
+        <v>185.3979173645106</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>168.0275386081547</v>
+        <v>168.137308169679</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5990,7 +5990,7 @@
         <v>70</v>
       </c>
       <c r="D339">
-        <v>216.0982738331745</v>
+        <v>218.0331116254889</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6018,7 +6018,7 @@
         <v>72</v>
       </c>
       <c r="D341">
-        <v>1040.054858708847</v>
+        <v>1259.247359275852</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>122.1043675600507</v>
+        <v>125.5406283241134</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6228,7 +6228,7 @@
         <v>87</v>
       </c>
       <c r="D356">
-        <v>116.1883237540192</v>
+        <v>117.8736369173433</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6242,7 +6242,7 @@
         <v>88</v>
       </c>
       <c r="D357">
-        <v>142.4576924317925</v>
+        <v>150.8655252421704</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6494,7 +6494,7 @@
         <v>106</v>
       </c>
       <c r="D375">
-        <v>137.343947452983</v>
+        <v>133.5605114616976</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.1820627975494</v>
+        <v>121.3806709405675</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>141.9559449347629</v>
+        <v>141.9004621523406</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6844,7 +6844,7 @@
         <v>131</v>
       </c>
       <c r="D400">
-        <v>144.335564</v>
+        <v>142.8972491682329</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>134.200463</v>
+        <v>134.6843155312319</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>194.1354933872261</v>
+        <v>181.6184816469385</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7096,7 +7096,7 @@
         <v>149</v>
       </c>
       <c r="D418">
-        <v>139.391864</v>
+        <v>135.6495157419994</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7124,7 +7124,7 @@
         <v>151</v>
       </c>
       <c r="D420">
-        <v>137.3659353161155</v>
+        <v>139.4254606641959</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7180,7 +7180,7 @@
         <v>155</v>
       </c>
       <c r="D424">
-        <v>143.246731</v>
+        <v>141.6928490051334</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>161.6851702670223</v>
+        <v>152.3524810316767</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>132.403463864892</v>
+        <v>134.906625541917</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7348,7 +7348,7 @@
         <v>167</v>
       </c>
       <c r="D436">
-        <v>142.3797539376779</v>
+        <v>144.0012997975766</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>84.35201031316957</v>
+        <v>81.90885841008279</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>91.1689546453666</v>
+        <v>91.054453686285</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>88.68071557620151</v>
+        <v>86.12602716598825</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>120.4357740866434</v>
+        <v>117.1716465139501</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8230,7 +8230,7 @@
         <v>230</v>
       </c>
       <c r="D499">
-        <v>113.6412070504635</v>
+        <v>137.1254908234968</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>107.1328382324602</v>
+        <v>108.3908122353773</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>164.104891</v>
+        <v>164.9919444648649</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>121.2533906330986</v>
+        <v>127.3485314321295</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>134.164947206858</v>
+        <v>135.5635667742353</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>294.6872454915479</v>
+        <v>294.3262429915865</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>112.0917724145195</v>
+        <v>112.6519183760175</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8734,7 +8734,7 @@
         <v>266</v>
       </c>
       <c r="D535">
-        <v>167.106644508797</v>
+        <v>164.7041383982518</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>139.7187249832537</v>
+        <v>133.8798042513838</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>139.3095967606622</v>
+        <v>151.0240841330415</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8944,7 +8944,7 @@
         <v>281</v>
       </c>
       <c r="D550">
-        <v>102.018291</v>
+        <v>110.1466940774176</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>122.0976699958697</v>
+        <v>123.2745263421435</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8972,7 +8972,7 @@
         <v>283</v>
       </c>
       <c r="D552">
-        <v>111.7523903583341</v>
+        <v>110.5072221838475</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>143.5371451792424</v>
+        <v>127.1091477672755</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>236.8100929811304</v>
+        <v>236.6599891606438</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>158.9839477671033</v>
+        <v>159.2322903054708</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -9322,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="D577">
-        <v>230.5398236822885</v>
+        <v>230.5125706982203</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>653.1508107266486</v>
+        <v>653.3935728015382</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9672,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="D602">
-        <v>1424.774302835238</v>
+        <v>1247.713190230327</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -9840,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="D614">
-        <v>153.2785564383754</v>
+        <v>149.4467441022711</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9854,7 +9854,7 @@
         <v>67</v>
       </c>
       <c r="D615">
-        <v>132.4046001697628</v>
+        <v>132.4378532306416</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9896,7 +9896,7 @@
         <v>70</v>
       </c>
       <c r="D618">
-        <v>458.5960175493339</v>
+        <v>462.7020610193725</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9924,7 +9924,7 @@
         <v>72</v>
       </c>
       <c r="D620">
-        <v>229.8604833249634</v>
+        <v>240.5691064868592</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10120,7 +10120,7 @@
         <v>86</v>
       </c>
       <c r="D634">
-        <v>113.7535689056219</v>
+        <v>115.2377108183582</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10134,7 +10134,7 @@
         <v>87</v>
       </c>
       <c r="D635">
-        <v>153.6933853377023</v>
+        <v>155.9227099122942</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>88</v>
       </c>
       <c r="D636">
-        <v>125.55111</v>
+        <v>132.9611187121851</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10400,7 +10400,7 @@
         <v>106</v>
       </c>
       <c r="D654">
-        <v>175.97069</v>
+        <v>171.1231968683115</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.3143563575878</v>
+        <v>120.3594951915837</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>123.1913955160916</v>
+        <v>123.1518102796981</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10750,7 +10750,7 @@
         <v>131</v>
       </c>
       <c r="D679">
-        <v>196.0664232575383</v>
+        <v>194.1126064935505</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>102.303717</v>
+        <v>102.6725675338829</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>140.923767121705</v>
+        <v>131.8376159147768</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11002,7 +11002,7 @@
         <v>149</v>
       </c>
       <c r="D697">
-        <v>133.7779403111611</v>
+        <v>130.1863128838789</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -11030,7 +11030,7 @@
         <v>151</v>
       </c>
       <c r="D699">
-        <v>139.19785</v>
+        <v>140.6786898859526</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -11086,7 +11086,7 @@
         <v>155</v>
       </c>
       <c r="D703">
-        <v>143.3102534176958</v>
+        <v>141.7556823576027</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>130.6983843163767</v>
+        <v>123.154294760284</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>120.063948</v>
+        <v>122.3338242151163</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11254,7 +11254,7 @@
         <v>167</v>
       </c>
       <c r="D715">
-        <v>117.345154</v>
+        <v>118.6815838180426</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>95.895421</v>
+        <v>93.11792844891993</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.40810616613385</v>
+        <v>92.29204893125501</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>65.303793</v>
+        <v>63.42254021537727</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>95.54013683994442</v>
+        <v>92.9507467909894</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12136,7 +12136,7 @@
         <v>230</v>
       </c>
       <c r="D778">
-        <v>132.472014</v>
+        <v>159.8477384357652</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>107.004161</v>
+        <v>108.2606240505716</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>106.39188</v>
+        <v>106.9669712432432</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>123.8106546965028</v>
+        <v>126.699731400291</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>117.1002843510389</v>
+        <v>117.8064816185741</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>150.846198</v>
+        <v>150.661405969056</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>117.9389816780355</v>
+        <v>118.5283473635546</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12640,7 +12640,7 @@
         <v>266</v>
       </c>
       <c r="D814">
-        <v>138.898642471619</v>
+        <v>137.8545547875489</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>106.3050482272678</v>
+        <v>98.38337151222586</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>121.131023</v>
+        <v>131.3168814931141</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12850,7 +12850,7 @@
         <v>281</v>
       </c>
       <c r="D829">
-        <v>110.702191</v>
+        <v>119.5224919595727</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>118.4626330765335</v>
+        <v>119.6044525849414</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12878,7 +12878,7 @@
         <v>283</v>
       </c>
       <c r="D831">
-        <v>101.394609</v>
+        <v>100.2648493609759</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>120.118087</v>
+        <v>106.3704287203103</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>196.1279414238896</v>
+        <v>195.9643543287582</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>158.2636493337083</v>
+        <v>159.1338311898149</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -13228,7 +13228,7 @@
         <v>29</v>
       </c>
       <c r="D856">
-        <v>186.5516464039547</v>
+        <v>186.5311786027667</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>470.1452815267615</v>
+        <v>470.5240269980622</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13578,7 +13578,7 @@
         <v>54</v>
       </c>
       <c r="D881">
-        <v>354.87030652075</v>
+        <v>310.7694751273332</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -13746,7 +13746,7 @@
         <v>66</v>
       </c>
       <c r="D893">
-        <v>182.7357237013673</v>
+        <v>178.1675113134371</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -13760,7 +13760,7 @@
         <v>67</v>
       </c>
       <c r="D894">
-        <v>153.0003532658455</v>
+        <v>153.0347409803861</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -13802,7 +13802,7 @@
         <v>70</v>
       </c>
       <c r="D897">
-        <v>379.7728423202942</v>
+        <v>383.173141798777</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -13830,7 +13830,7 @@
         <v>72</v>
       </c>
       <c r="D899">
-        <v>334.3103111321621</v>
+        <v>357.5894149224774</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -14026,7 +14026,7 @@
         <v>86</v>
       </c>
       <c r="D913">
-        <v>126.6368338609648</v>
+        <v>130.8336664492486</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -14040,7 +14040,7 @@
         <v>87</v>
       </c>
       <c r="D914">
-        <v>132.7244821776499</v>
+        <v>134.6496525362732</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -14054,7 +14054,7 @@
         <v>88</v>
       </c>
       <c r="D915">
-        <v>156.0996339363473</v>
+        <v>165.312612200237</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -14306,7 +14306,7 @@
         <v>106</v>
       </c>
       <c r="D933">
-        <v>137.725888</v>
+        <v>133.9319306305329</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>133.0154009276984</v>
+        <v>132.9853959677685</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14656,7 +14656,7 @@
         <v>131</v>
       </c>
       <c r="D958">
-        <v>162.9804</v>
+        <v>161.3562879647477</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>152.0045974429417</v>
+        <v>142.2040025204257</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>149</v>
       </c>
       <c r="D976">
-        <v>121.2047897679206</v>
+        <v>117.9507222719202</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14936,7 +14936,7 @@
         <v>151</v>
       </c>
       <c r="D978">
-        <v>139.2660654151207</v>
+        <v>141.5422219768953</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14992,7 +14992,7 @@
         <v>155</v>
       </c>
       <c r="D982">
-        <v>149.4283818814179</v>
+        <v>147.8074438641475</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>145.611662</v>
+        <v>137.2067576525952</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15160,7 +15160,7 @@
         <v>167</v>
       </c>
       <c r="D994">
-        <v>118.751265</v>
+        <v>120.103708846776</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>101.5623995385276</v>
+        <v>98.62076994613983</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>98.09634017827285</v>
+        <v>97.97313897369068</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -15958,7 +15958,7 @@
         <v>224</v>
       </c>
       <c r="D1051">
-        <v>56.54678740810382</v>
+        <v>54.91780390827916</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -16042,7 +16042,7 @@
         <v>230</v>
       </c>
       <c r="D1057">
-        <v>142.3538384447969</v>
+        <v>171.7716704529839</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>130.0246891756027</v>
+        <v>131.5514636120772</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>81.62257971685678</v>
+        <v>82.06378285046141</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>112.9522817982912</v>
+        <v>116.9813073894055</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>121.363635730326</v>
+        <v>122.2170512667978</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>194.1743572629663</v>
+        <v>193.9364866748334</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>115.4463501240248</v>
+        <v>116.0232596098746</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16546,7 +16546,7 @@
         <v>266</v>
       </c>
       <c r="D1093">
-        <v>135.7009584374483</v>
+        <v>134.5313266490201</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>128.3711629209133</v>
+        <v>122.3615786920411</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>126.401999</v>
+        <v>137.0310917226855</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16756,7 +16756,7 @@
         <v>281</v>
       </c>
       <c r="D1108">
-        <v>111.0174179032006</v>
+        <v>119.8628348621196</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>149.1183011984245</v>
+        <v>150.5555998718297</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -16784,7 +16784,7 @@
         <v>283</v>
       </c>
       <c r="D1110">
-        <v>109.994843</v>
+        <v>108.7692577805511</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>144.4090798921614</v>
+        <v>127.8812885126514</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>271.5699458590223</v>
+        <v>271.4197636401083</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>188.9739619435249</v>
+        <v>190.7566269728438</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>1163.051668968904</v>
+        <v>1163.008570589107</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1251.016013107681</v>
+        <v>1252.051818189659</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17484,7 +17484,7 @@
         <v>54</v>
       </c>
       <c r="D1160">
-        <v>2268.923014231685</v>
+        <v>1986.956928434581</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -17652,7 +17652,7 @@
         <v>66</v>
       </c>
       <c r="D1172">
-        <v>196.0403651919813</v>
+        <v>191.1395499235452</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -17666,7 +17666,7 @@
         <v>67</v>
       </c>
       <c r="D1173">
-        <v>176.0267278799708</v>
+        <v>176.0489803796831</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -17708,7 +17708,7 @@
         <v>70</v>
       </c>
       <c r="D1176">
-        <v>363.9886138881002</v>
+        <v>367.2475891387147</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -17736,7 +17736,7 @@
         <v>72</v>
       </c>
       <c r="D1178">
-        <v>68856.49518274612</v>
+        <v>84917.85564587473</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -17932,7 +17932,7 @@
         <v>86</v>
       </c>
       <c r="D1192">
-        <v>123.1655317190204</v>
+        <v>124.9578097214287</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -17946,7 +17946,7 @@
         <v>87</v>
       </c>
       <c r="D1193">
-        <v>109.351183</v>
+        <v>110.9373233468143</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -17960,7 +17960,7 @@
         <v>88</v>
       </c>
       <c r="D1194">
-        <v>129.4239672062838</v>
+        <v>137.0625514017092</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -18212,7 +18212,7 @@
         <v>106</v>
       </c>
       <c r="D1212">
-        <v>132.021304</v>
+        <v>128.384491730999</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>134.3554740430233</v>
+        <v>134.3087522089198</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18562,7 +18562,7 @@
         <v>131</v>
       </c>
       <c r="D1237">
-        <v>142.199002</v>
+        <v>140.7819781704532</v>
       </c>
     </row>
     <row r="1238" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>155.4600756993977</v>
+        <v>145.4366865770693</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18814,7 +18814,7 @@
         <v>149</v>
       </c>
       <c r="D1255">
-        <v>113.551992</v>
+        <v>110.5033843749976</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -18842,7 +18842,7 @@
         <v>151</v>
       </c>
       <c r="D1257">
-        <v>123.9493985050365</v>
+        <v>126.1066384191713</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -18898,7 +18898,7 @@
         <v>155</v>
       </c>
       <c r="D1261">
-        <v>131.344615</v>
+        <v>129.9198422952658</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>135.666571</v>
+        <v>127.8357109113665</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19808,7 +19808,7 @@
         <v>220</v>
       </c>
       <c r="D1326">
-        <v>107.9834526095696</v>
+        <v>107.8478339778015</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -19864,7 +19864,7 @@
         <v>224</v>
       </c>
       <c r="D1330">
-        <v>63.2661614362411</v>
+        <v>61.44360815247825</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>103.795165410163</v>
+        <v>100.982042283775</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>100</v>
+        <v>100.5405405405405</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>123.8887861228343</v>
+        <v>128.2040531485567</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>115.2880975222803</v>
+        <v>115.9786163666768</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>108.7687460163293</v>
+        <v>108.6355003810659</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>104.911456</v>
+        <v>105.4357204230475</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20452,7 +20452,7 @@
         <v>266</v>
       </c>
       <c r="D1372">
-        <v>154.9425393771223</v>
+        <v>153.5899967755524</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>117.0390406971025</v>
+        <v>109.5639036586013</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>147.333643</v>
+        <v>159.7228691594537</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20662,7 +20662,7 @@
         <v>281</v>
       </c>
       <c r="D1387">
-        <v>121.122593</v>
+        <v>130.773149268248</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>119.0709219294671</v>
+        <v>120.2186045194306</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20690,7 +20690,7 @@
         <v>283</v>
       </c>
       <c r="D1389">
-        <v>116.045569</v>
+        <v>114.7525653439202</v>
       </c>
     </row>
     <row r="1390" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>143.441006</v>
+        <v>127.0240118317286</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>218.6552969767298</v>
+        <v>218.5177370908722</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>147.1276348819321</v>
+        <v>148.9078056303107</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -21040,7 +21040,7 @@
         <v>29</v>
       </c>
       <c r="D1414">
-        <v>181.3138453001381</v>
+        <v>181.3012376210893</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>354.2455073845783</v>
+        <v>354.4741961249728</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21390,7 +21390,7 @@
         <v>54</v>
       </c>
       <c r="D1439">
-        <v>645.2525008878497</v>
+        <v>565.0649754033197</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -21558,7 +21558,7 @@
         <v>66</v>
       </c>
       <c r="D1451">
-        <v>189.3074537561355</v>
+        <v>184.5749546155209</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -21572,7 +21572,7 @@
         <v>67</v>
       </c>
       <c r="D1452">
-        <v>138.3504132280718</v>
+        <v>138.3697791411918</v>
       </c>
     </row>
     <row r="1453" spans="1:4">
@@ -21614,7 +21614,7 @@
         <v>70</v>
       </c>
       <c r="D1455">
-        <v>714.2935657893058</v>
+        <v>720.6889995027797</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -21642,7 +21642,7 @@
         <v>72</v>
       </c>
       <c r="D1457">
-        <v>493.7012897777608</v>
+        <v>559.5852104627133</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -21866,7 +21866,7 @@
         <v>88</v>
       </c>
       <c r="D1473">
-        <v>134.4972006744511</v>
+        <v>142.4352063899097</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -22118,7 +22118,7 @@
         <v>106</v>
       </c>
       <c r="D1491">
-        <v>131.24278</v>
+        <v>127.6274138578674</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.2068640260536</v>
+        <v>118.2780586642984</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>126.4471308442269</v>
+        <v>126.4120694819126</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22468,7 +22468,7 @@
         <v>131</v>
       </c>
       <c r="D1516">
-        <v>176.951292</v>
+        <v>175.1879589673737</v>
       </c>
     </row>
     <row r="1517" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>124.097795</v>
+        <v>124.5452229066463</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>155.4015879558113</v>
+        <v>145.3819698686521</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22720,7 +22720,7 @@
         <v>149</v>
       </c>
       <c r="D1534">
-        <v>135.1906025046558</v>
+        <v>131.5610483738541</v>
       </c>
     </row>
     <row r="1535" spans="1:4">
@@ -22748,7 +22748,7 @@
         <v>151</v>
       </c>
       <c r="D1536">
-        <v>155.0123597144631</v>
+        <v>158.01719328673</v>
       </c>
     </row>
     <row r="1537" spans="1:4">
@@ -22804,7 +22804,7 @@
         <v>155</v>
       </c>
       <c r="D1540">
-        <v>148.9909529896731</v>
+        <v>147.374760022249</v>
       </c>
     </row>
     <row r="1541" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>127.2178145663951</v>
+        <v>119.8746282581691</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -22972,7 +22972,7 @@
         <v>167</v>
       </c>
       <c r="D1552">
-        <v>106.4184079959915</v>
+        <v>107.6303944205393</v>
       </c>
     </row>
     <row r="1553" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>100.7421894709699</v>
+        <v>97.82431625119315</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23714,7 +23714,7 @@
         <v>220</v>
       </c>
       <c r="D1605">
-        <v>100.5964111675803</v>
+        <v>100.4700700725918</v>
       </c>
     </row>
     <row r="1606" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>75.53944</v>
+        <v>73.36332165647833</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>140.808801</v>
+        <v>136.9925105887197</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23854,7 +23854,7 @@
         <v>230</v>
       </c>
       <c r="D1615">
-        <v>109.423694</v>
+        <v>132.0364165157723</v>
       </c>
     </row>
     <row r="1616" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>86.60250000000001</v>
+        <v>87.07062162162163</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>132.6122301257224</v>
+        <v>141.1653288960702</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>132.9288761433453</v>
+        <v>134.0417091017935</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>151.0076164695083</v>
+        <v>150.8226266951197</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>99.99991900000001</v>
+        <v>100.4996394484451</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24358,7 +24358,7 @@
         <v>266</v>
       </c>
       <c r="D1651">
-        <v>130.7581706673903</v>
+        <v>129.3685001414639</v>
       </c>
     </row>
     <row r="1652" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>138.366731</v>
+        <v>131.1971047994903</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>102.627694</v>
+        <v>111.2576150777623</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>281</v>
       </c>
       <c r="D1666">
-        <v>122.0651462367667</v>
+        <v>131.7908013187202</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>116.784266</v>
+        <v>117.9099083205429</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>283</v>
       </c>
       <c r="D1668">
-        <v>108.286879</v>
+        <v>107.0803242675873</v>
       </c>
     </row>
     <row r="1669" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>138.733821</v>
+        <v>122.8555697675805</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>163.4311518970403</v>
+        <v>163.3497121451862</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>148.6675829857409</v>
+        <v>149.5297918623369</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="D1693">
-        <v>183.3108014582963</v>
+        <v>183.284135930137</v>
       </c>
     </row>
     <row r="1694" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>391.231708252568</v>
+        <v>391.3215925757997</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25296,7 +25296,7 @@
         <v>54</v>
       </c>
       <c r="D1718">
-        <v>266.651592135556</v>
+        <v>233.513973435219</v>
       </c>
     </row>
     <row r="1719" spans="1:4">
@@ -25464,7 +25464,7 @@
         <v>66</v>
       </c>
       <c r="D1730">
-        <v>156.0684712912425</v>
+        <v>152.1669138427212</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>138.4435570988018</v>
+        <v>138.4674491836916</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -25520,7 +25520,7 @@
         <v>70</v>
       </c>
       <c r="D1734">
-        <v>256.9399875884483</v>
+        <v>259.2405020234997</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
@@ -25548,7 +25548,7 @@
         <v>72</v>
       </c>
       <c r="D1736">
-        <v>138.116038969949</v>
+        <v>145.4924165764533</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -25744,7 +25744,7 @@
         <v>86</v>
       </c>
       <c r="D1750">
-        <v>115.5879427212424</v>
+        <v>117.3725014079754</v>
       </c>
     </row>
     <row r="1751" spans="1:4">
@@ -25772,7 +25772,7 @@
         <v>88</v>
       </c>
       <c r="D1752">
-        <v>118.2738568208291</v>
+        <v>125.2543630821124</v>
       </c>
     </row>
     <row r="1753" spans="1:4">
@@ -26024,7 +26024,7 @@
         <v>106</v>
       </c>
       <c r="D1770">
-        <v>151.4411192148595</v>
+        <v>147.2693461471443</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>118.9886885764735</v>
+        <v>119.0484172521092</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>138.1819127841959</v>
+        <v>138.1389177430296</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26374,7 +26374,7 @@
         <v>131</v>
       </c>
       <c r="D1795">
-        <v>114.5584618386395</v>
+        <v>113.416878086163</v>
       </c>
     </row>
     <row r="1796" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.1457560426645</v>
+        <v>97.49600982651083</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>135.8791926078336</v>
+        <v>127.1182936116845</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26626,7 +26626,7 @@
         <v>149</v>
       </c>
       <c r="D1813">
-        <v>112.1762166769505</v>
+        <v>109.1645454285477</v>
       </c>
     </row>
     <row r="1814" spans="1:4">
@@ -26654,7 +26654,7 @@
         <v>151</v>
       </c>
       <c r="D1815">
-        <v>117.8313572309179</v>
+        <v>120.1131251175332</v>
       </c>
     </row>
     <row r="1816" spans="1:4">
@@ -26710,7 +26710,7 @@
         <v>155</v>
       </c>
       <c r="D1819">
-        <v>123.3777428878007</v>
+        <v>122.0393915557857</v>
       </c>
     </row>
     <row r="1820" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>128.1907695344055</v>
+        <v>120.7914229342899</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>140.0849711797443</v>
+        <v>142.7333560569111</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -26878,7 +26878,7 @@
         <v>167</v>
       </c>
       <c r="D1831">
-        <v>121.6511734178279</v>
+        <v>123.0366439721165</v>
       </c>
     </row>
     <row r="1832" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>96.55919390001979</v>
+        <v>93.76247598587037</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.8798254700874</v>
+        <v>91.76443171376435</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27676,7 +27676,7 @@
         <v>224</v>
       </c>
       <c r="D1888">
-        <v>61.40003859075949</v>
+        <v>59.63124403429615</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>110.370079</v>
+        <v>107.3787583496668</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27760,7 +27760,7 @@
         <v>230</v>
       </c>
       <c r="D1894">
-        <v>110.0626155939043</v>
+        <v>132.807373103051</v>
       </c>
     </row>
     <row r="1895" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>130.1555888845191</v>
+        <v>131.683900370077</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>320.4997651145632</v>
+        <v>322.2321962773446</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>127.6451092192329</v>
+        <v>131.7588109533405</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>115.6382826445743</v>
+        <v>116.3680785797134</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>208.5864324413264</v>
+        <v>208.3309065415076</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>125.990257</v>
+        <v>126.6198565872531</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28264,7 +28264,7 @@
         <v>266</v>
       </c>
       <c r="D1930">
-        <v>139.6466408749549</v>
+        <v>138.78526996592</v>
       </c>
     </row>
     <row r="1931" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>125.124431078202</v>
+        <v>118.6575534685236</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>123.8066354549285</v>
+        <v>134.2174851119356</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28474,7 +28474,7 @@
         <v>281</v>
       </c>
       <c r="D1945">
-        <v>112.7242289202733</v>
+        <v>121.7056376487833</v>
       </c>
     </row>
     <row r="1946" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>138.7172827167724</v>
+        <v>140.0543296441102</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -28502,7 +28502,7 @@
         <v>283</v>
       </c>
       <c r="D1947">
-        <v>113.4534798442948</v>
+        <v>112.1893577800248</v>
       </c>
     </row>
     <row r="1948" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>122.270417</v>
+        <v>108.2764219854843</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>170.204418155976</v>
+        <v>170.160450551045</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>168.5374826905785</v>
+        <v>169.3707170330677</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -28852,7 +28852,7 @@
         <v>29</v>
       </c>
       <c r="D1972">
-        <v>285.6759053403861</v>
+        <v>285.6203448604415</v>
       </c>
     </row>
     <row r="1973" spans="1:4">
@@ -28978,7 +28978,7 @@
         <v>38</v>
       </c>
       <c r="D1981">
-        <v>739.0509077700443</v>
+        <v>739.96284212577</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -29202,7 +29202,7 @@
         <v>54</v>
       </c>
       <c r="D1997">
-        <v>419.6091739797465</v>
+        <v>367.4630431460876</v>
       </c>
     </row>
     <row r="1998" spans="1:4">
@@ -29370,7 +29370,7 @@
         <v>66</v>
       </c>
       <c r="D2009">
-        <v>185.3521130742186</v>
+        <v>180.7184935392751</v>
       </c>
     </row>
     <row r="2010" spans="1:4">
@@ -29384,7 +29384,7 @@
         <v>67</v>
       </c>
       <c r="D2010">
-        <v>166.2894119772814</v>
+        <v>166.2935938045451</v>
       </c>
     </row>
     <row r="2011" spans="1:4">
@@ -29426,7 +29426,7 @@
         <v>70</v>
       </c>
       <c r="D2013">
-        <v>679.6520782756638</v>
+        <v>685.7373491264989</v>
       </c>
     </row>
     <row r="2014" spans="1:4">
@@ -29454,7 +29454,7 @@
         <v>72</v>
       </c>
       <c r="D2015">
-        <v>123.9195563514397</v>
+        <v>126.7667705350038</v>
       </c>
     </row>
     <row r="2016" spans="1:4">
@@ -29650,7 +29650,7 @@
         <v>86</v>
       </c>
       <c r="D2029">
-        <v>115.3233621515839</v>
+        <v>119.1175854672977</v>
       </c>
     </row>
     <row r="2030" spans="1:4">
@@ -29930,7 +29930,7 @@
         <v>106</v>
       </c>
       <c r="D2049">
-        <v>101.0163</v>
+        <v>98.23358760375613</v>
       </c>
     </row>
     <row r="2050" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>127.4473645177403</v>
+        <v>127.5369750772337</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>131.4352931983964</v>
+        <v>131.3495378698825</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30280,7 +30280,7 @@
         <v>131</v>
       </c>
       <c r="D2074">
-        <v>157.3305468602376</v>
+        <v>155.7627360396203</v>
       </c>
     </row>
     <row r="2075" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>110.397024</v>
+        <v>110.7950545157582</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>152.700587</v>
+        <v>142.8551176997758</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30532,7 +30532,7 @@
         <v>149</v>
       </c>
       <c r="D2092">
-        <v>117.4771291094327</v>
+        <v>114.3231406565801</v>
       </c>
     </row>
     <row r="2093" spans="1:4">
@@ -30560,7 +30560,7 @@
         <v>151</v>
       </c>
       <c r="D2094">
-        <v>121.474907</v>
+        <v>123.3111782153398</v>
       </c>
     </row>
     <row r="2095" spans="1:4">
@@ -30616,7 +30616,7 @@
         <v>155</v>
       </c>
       <c r="D2098">
-        <v>152.7663471745365</v>
+        <v>151.1092002739481</v>
       </c>
     </row>
     <row r="2099" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>130.6660960483642</v>
+        <v>123.123870215276</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>136.2163007113357</v>
+        <v>138.7915462054767</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -30784,7 +30784,7 @@
         <v>167</v>
       </c>
       <c r="D2110">
-        <v>117.5092574433724</v>
+        <v>118.847556215756</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>89.77235557532909</v>
+        <v>87.17221005948231</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31526,7 +31526,7 @@
         <v>220</v>
       </c>
       <c r="D2163">
-        <v>104.0073971665609</v>
+        <v>103.8767721443319</v>
       </c>
     </row>
     <row r="2164" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>94.67484243385681</v>
+        <v>91.9474769504704</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>130.4857064519637</v>
+        <v>126.9491991682906</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>99.08047211046826</v>
+        <v>100.2438937108675</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>187.5</v>
+        <v>188.5135135135135</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>111.2374262758303</v>
+        <v>112.3565242220526</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>126.4805827018998</v>
+        <v>126.962114897284</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>88.999152</v>
+        <v>88.89012483015132</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>110.8567007299666</v>
+        <v>111.4106747807048</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32170,7 +32170,7 @@
         <v>266</v>
       </c>
       <c r="D2209">
-        <v>138.2954749021246</v>
+        <v>137.7277541326297</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>123.8109497187822</v>
+        <v>114.729188934634</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>109.239935</v>
+        <v>118.425876736057</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>281</v>
       </c>
       <c r="D2224">
-        <v>114.6476507084504</v>
+        <v>123.7823098730238</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>124.618676</v>
+        <v>125.8198314333494</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32408,7 +32408,7 @@
         <v>283</v>
       </c>
       <c r="D2226">
-        <v>106.3988343285818</v>
+        <v>105.2133165791752</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>138.652461</v>
+        <v>122.7835215165898</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>171.437962874708</v>
+        <v>171.2575478515762</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>165.8648115130096</v>
+        <v>167.8577689585035</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -32758,7 +32758,7 @@
         <v>29</v>
       </c>
       <c r="D2251">
-        <v>214.8887554577117</v>
+        <v>214.8617179109902</v>
       </c>
     </row>
     <row r="2252" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>895.1587201117378</v>
+        <v>895.6751322938193</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -33108,7 +33108,7 @@
         <v>54</v>
       </c>
       <c r="D2276">
-        <v>672.7662544708387</v>
+        <v>589.1595096673983</v>
       </c>
     </row>
     <row r="2277" spans="1:4">
@@ -33276,7 +33276,7 @@
         <v>66</v>
       </c>
       <c r="D2288">
-        <v>172.240736</v>
+        <v>167.9348879262687</v>
       </c>
     </row>
     <row r="2289" spans="1:4">
@@ -33290,7 +33290,7 @@
         <v>67</v>
       </c>
       <c r="D2289">
-        <v>137.5076537203807</v>
+        <v>137.5905479697138</v>
       </c>
     </row>
     <row r="2290" spans="1:4">
@@ -33332,7 +33332,7 @@
         <v>70</v>
       </c>
       <c r="D2292">
-        <v>6699.387612212923</v>
+        <v>6759.370638025889</v>
       </c>
     </row>
     <row r="2293" spans="1:4">
@@ -33360,7 +33360,7 @@
         <v>72</v>
       </c>
       <c r="D2294">
-        <v>1041.089401659771</v>
+        <v>1056.267578235351</v>
       </c>
     </row>
     <row r="2295" spans="1:4">
@@ -33556,7 +33556,7 @@
         <v>86</v>
       </c>
       <c r="D2308">
-        <v>118.0428538197828</v>
+        <v>119.2686569832004</v>
       </c>
     </row>
     <row r="2309" spans="1:4">
@@ -33570,7 +33570,7 @@
         <v>87</v>
       </c>
       <c r="D2309">
-        <v>104.59358</v>
+        <v>106.1107112527616</v>
       </c>
     </row>
     <row r="2310" spans="1:4">
@@ -33836,7 +33836,7 @@
         <v>106</v>
       </c>
       <c r="D2328">
-        <v>141.792937</v>
+        <v>137.8869439722438</v>
       </c>
     </row>
     <row r="2329" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>133.251509601704</v>
+        <v>133.2006564552064</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34186,7 +34186,7 @@
         <v>131</v>
       </c>
       <c r="D2353">
-        <v>141.478352</v>
+        <v>140.0685095023079</v>
       </c>
     </row>
     <row r="2354" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>124.743262</v>
+        <v>116.7003593461234</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34438,7 +34438,7 @@
         <v>149</v>
       </c>
       <c r="D2371">
-        <v>127.215154</v>
+        <v>123.7997221641564</v>
       </c>
     </row>
     <row r="2372" spans="1:4">
@@ -34466,7 +34466,7 @@
         <v>151</v>
       </c>
       <c r="D2373">
-        <v>139.164136729105</v>
+        <v>141.6363189568066</v>
       </c>
     </row>
     <row r="2374" spans="1:4">
@@ -34522,7 +34522,7 @@
         <v>155</v>
       </c>
       <c r="D2377">
-        <v>118.721841</v>
+        <v>117.4339949888591</v>
       </c>
     </row>
     <row r="2378" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>120.9406367963273</v>
+        <v>113.9597777770315</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>121.624734</v>
+        <v>123.9241177490372</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -34690,7 +34690,7 @@
         <v>167</v>
       </c>
       <c r="D2389">
-        <v>131.2179536935586</v>
+        <v>132.7123791555475</v>
       </c>
     </row>
     <row r="2390" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>99.87780979830228</v>
+        <v>96.98497226925095</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.9416141697001</v>
+        <v>96.81986320918372</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>89.76871987376097</v>
+        <v>87.18268855036555</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>116.089789</v>
+        <v>112.9434491017698</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35572,7 +35572,7 @@
         <v>230</v>
       </c>
       <c r="D2452">
-        <v>96.08776400000001</v>
+        <v>115.944578050648</v>
       </c>
     </row>
     <row r="2453" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>116.1430014949914</v>
+        <v>117.5067745351906</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>100.1489506493507</v>
+        <v>100.6902963285364</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>111.7324989940479</v>
+        <v>113.166470454093</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>120.0757072210729</v>
+        <v>120.8275487778925</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>81.98786200000001</v>
+        <v>81.88742391317641</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>100.2496039204084</v>
+        <v>100.750572096468</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36076,7 +36076,7 @@
         <v>266</v>
       </c>
       <c r="D2488">
-        <v>144.1312333853755</v>
+        <v>143.099333628805</v>
       </c>
     </row>
     <row r="2489" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>108.349868613219</v>
+        <v>102.9977463641575</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>110.724548</v>
+        <v>120.0353302398397</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36286,7 +36286,7 @@
         <v>281</v>
       </c>
       <c r="D2503">
-        <v>104.840125</v>
+        <v>113.1933603495986</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>142.016640112362</v>
+        <v>143.3854883811158</v>
       </c>
     </row>
     <row r="2505" spans="1:4">
@@ -36314,7 +36314,7 @@
         <v>283</v>
       </c>
       <c r="D2505">
-        <v>111.782113</v>
+        <v>110.5366136497118</v>
       </c>
     </row>
     <row r="2506" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>111.813850587697</v>
+        <v>99.01662206693359</v>
       </c>
     </row>
     <row r="2510" spans="1:4">

--- a/IPC2024_base2010/indprod_2_2024.xlsx
+++ b/IPC2024_base2010/indprod_2_2024.xlsx
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>154.6992633993971</v>
+        <v>154.2713970043199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.1358863118316</v>
+        <v>120.141864743683</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>134.3166925261631</v>
+        <v>135.4168517915993</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2798,7 +2798,7 @@
         <v>121</v>
       </c>
       <c r="D111">
-        <v>151.4160021167002</v>
+        <v>152.7734568811492</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2938,7 +2938,7 @@
         <v>131</v>
       </c>
       <c r="D121">
-        <v>145.8252403796341</v>
+        <v>147.293026549801</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>130.2172767278134</v>
+        <v>130.2290547015324</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>126.3930833191464</v>
+        <v>126.5702287273051</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>128.2053305283441</v>
+        <v>128.2596088288712</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>80.8432434223604</v>
+        <v>81.00639874570585</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>117.2368040676977</v>
+        <v>115.1176009148734</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>196.2390679530313</v>
+        <v>195.1840192005957</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>127.5152803314523</v>
+        <v>128.4302795703319</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>228.6600805786641</v>
+        <v>230.3170376843066</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>112.8978245469633</v>
+        <v>115.4124035006222</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.7451754239836</v>
+        <v>144.5302642186121</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.3806709405675</v>
+        <v>121.385029537144</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>141.9004621523406</v>
+        <v>142.5560229820493</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6704,7 +6704,7 @@
         <v>121</v>
       </c>
       <c r="D390">
-        <v>154.240145</v>
+        <v>155.6229183976108</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6844,7 +6844,7 @@
         <v>131</v>
       </c>
       <c r="D400">
-        <v>142.8972491682329</v>
+        <v>144.335564</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>134.6843155312319</v>
+        <v>134.6964975424716</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>152.3524810316767</v>
+        <v>152.5660096657413</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>134.906625541917</v>
+        <v>134.9637409702232</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>86.12602716598825</v>
+        <v>86.299844039432</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>117.1716465139501</v>
+        <v>115.05362116612</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>164.9919444648649</v>
+        <v>164.104891</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>127.3485314321295</v>
+        <v>128.38530850793</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>294.3262429915865</v>
+        <v>296.4590418538444</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>112.6519183760175</v>
+        <v>115.1610202490992</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>159.2322903054708</v>
+        <v>159.1211632220398</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.3594951915837</v>
+        <v>120.3696875984658</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>123.1518102796981</v>
+        <v>124.7603619855351</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10610,7 +10610,7 @@
         <v>121</v>
       </c>
       <c r="D669">
-        <v>186.684823</v>
+        <v>188.358465144087</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -10750,7 +10750,7 @@
         <v>131</v>
       </c>
       <c r="D679">
-        <v>194.1126064935505</v>
+        <v>196.0664232575383</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>102.6725675338829</v>
+        <v>102.6818541265107</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>123.154294760284</v>
+        <v>123.3269008652931</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>122.3338242151163</v>
+        <v>122.3856166955694</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.29204893125501</v>
+        <v>92.292048931255</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>63.42254021537727</v>
+        <v>63.55053761649797</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>92.9507467909894</v>
+        <v>91.27054476549671</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>106.9669712432432</v>
+        <v>106.39188</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>126.699731400291</v>
+        <v>127.1897687108015</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>150.661405969056</v>
+        <v>151.7531552876723</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>118.5283473635546</v>
+        <v>121.1683352365574</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>159.1338311898149</v>
+        <v>158.7472083099211</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>132.9853959677685</v>
+        <v>133.8095886864442</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14516,7 +14516,7 @@
         <v>121</v>
       </c>
       <c r="D948">
-        <v>145.555262</v>
+        <v>146.860174830417</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -14656,7 +14656,7 @@
         <v>131</v>
       </c>
       <c r="D958">
-        <v>161.3562879647477</v>
+        <v>162.9804</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>137.2067576525952</v>
+        <v>137.3990588960511</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15958,7 +15958,7 @@
         <v>224</v>
       </c>
       <c r="D1051">
-        <v>54.91780390827916</v>
+        <v>55.02863731469342</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>82.06378285046141</v>
+        <v>81.62257971685678</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>116.9813073894055</v>
+        <v>117.6667350046358</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>193.9364866748334</v>
+        <v>195.341823534796</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>116.0232596098746</v>
+        <v>118.6074515366955</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>190.7566269728438</v>
+        <v>189.9636115796057</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>134.3087522089198</v>
+        <v>135.4976969773213</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18422,7 +18422,7 @@
         <v>121</v>
       </c>
       <c r="D1227">
-        <v>133.759688</v>
+        <v>134.9588527066925</v>
       </c>
     </row>
     <row r="1228" spans="1:4">
@@ -18562,7 +18562,7 @@
         <v>131</v>
       </c>
       <c r="D1237">
-        <v>140.7819781704532</v>
+        <v>142.199002</v>
       </c>
     </row>
     <row r="1238" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>127.8357109113665</v>
+        <v>128.0148782248932</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19864,7 +19864,7 @@
         <v>224</v>
       </c>
       <c r="D1330">
-        <v>61.44360815247825</v>
+        <v>61.56761173436393</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>100.982042283775</v>
+        <v>99.15666445905337</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>100.5405405405405</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>128.2040531485567</v>
+        <v>128.9380295249639</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>108.6355003810659</v>
+        <v>109.4227141519431</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>105.4357204230475</v>
+        <v>107.7840955543095</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>148.9078056303107</v>
+        <v>148.0993712896161</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.2780586642984</v>
+        <v>118.2835950730869</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>126.4120694819126</v>
+        <v>127.4764980846197</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22328,7 +22328,7 @@
         <v>121</v>
       </c>
       <c r="D1506">
-        <v>147.215679</v>
+        <v>148.5354775818311</v>
       </c>
     </row>
     <row r="1507" spans="1:4">
@@ -22468,7 +22468,7 @@
         <v>131</v>
       </c>
       <c r="D1516">
-        <v>175.1879589673737</v>
+        <v>176.951292</v>
       </c>
     </row>
     <row r="1517" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>124.5452229066463</v>
+        <v>124.5564878508925</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>119.8746282581691</v>
+        <v>120.0426377678117</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>73.36332165647833</v>
+        <v>73.51138123399956</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>136.9925105887197</v>
+        <v>134.5161981144792</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>87.07062162162163</v>
+        <v>86.60250000000001</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>141.1653288960702</v>
+        <v>142.63030137139</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>150.8226266951197</v>
+        <v>151.9155442798669</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>100.4996394484451</v>
+        <v>102.7380729986172</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>149.5297918623369</v>
+        <v>149.146555744409</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.0484172521092</v>
+        <v>119.0603394068746</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>138.1389177430296</v>
+        <v>139.3649167659563</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26234,7 +26234,7 @@
         <v>121</v>
       </c>
       <c r="D1785">
-        <v>165.128995</v>
+        <v>166.6093876789631</v>
       </c>
     </row>
     <row r="1786" spans="1:4">
@@ -26374,7 +26374,7 @@
         <v>131</v>
       </c>
       <c r="D1795">
-        <v>113.416878086163</v>
+        <v>114.5584618386395</v>
       </c>
     </row>
     <row r="1796" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.49600982651083</v>
+        <v>97.50482820660835</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>120.7914229342899</v>
+        <v>120.9607173715791</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>142.7333560569111</v>
+        <v>142.7937850887101</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -27676,7 +27676,7 @@
         <v>224</v>
       </c>
       <c r="D1888">
-        <v>59.63124403429615</v>
+        <v>59.7515899592002</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>107.3787583496668</v>
+        <v>105.4377518112289</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>322.2321962773446</v>
+        <v>320.4997651145632</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>131.7588109533405</v>
+        <v>132.4580664597604</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>208.3309065415076</v>
+        <v>209.8405507918084</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>126.6198565872531</v>
+        <v>129.4400670542597</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>169.3707170330677</v>
+        <v>168.9983116423664</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>127.5369750772337</v>
+        <v>127.5434715071334</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>131.3495378698825</v>
+        <v>132.6627072711991</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30140,7 +30140,7 @@
         <v>121</v>
       </c>
       <c r="D2064">
-        <v>88.085593</v>
+        <v>88.87528633640846</v>
       </c>
     </row>
     <row r="2065" spans="1:4">
@@ -30280,7 +30280,7 @@
         <v>131</v>
       </c>
       <c r="D2074">
-        <v>155.7627360396203</v>
+        <v>157.3305468602376</v>
       </c>
     </row>
     <row r="2075" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>110.7950545157582</v>
+        <v>110.8050757761706</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>123.123870215276</v>
+        <v>123.2964336789609</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>138.7915462054767</v>
+        <v>138.8503063929394</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>91.9474769504704</v>
+        <v>92.1330424930882</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>126.9491991682906</v>
+        <v>124.6544322197596</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>188.5135135135135</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>112.3565242220526</v>
+        <v>112.5457265420942</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>88.89012483015132</v>
+        <v>89.53425616950024</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>111.4106747807048</v>
+        <v>113.8921303724373</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>167.8577689585035</v>
+        <v>166.9466322499936</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>133.2006564552064</v>
+        <v>134.3709220524687</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34046,7 +34046,7 @@
         <v>121</v>
       </c>
       <c r="D2343">
-        <v>193.737489</v>
+        <v>195.4743587747861</v>
       </c>
     </row>
     <row r="2344" spans="1:4">
@@ -34186,7 +34186,7 @@
         <v>131</v>
       </c>
       <c r="D2353">
-        <v>140.0685095023079</v>
+        <v>141.478352</v>
       </c>
     </row>
     <row r="2354" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>113.9597777770315</v>
+        <v>114.1194973662515</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>123.9241177490372</v>
+        <v>123.9765835121846</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.81986320918372</v>
+        <v>96.81986320918371</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>87.18268855036555</v>
+        <v>87.35863794500138</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>112.9434491017698</v>
+        <v>110.9018537569401</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>100.6902963285364</v>
+        <v>100.1489506493507</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>113.166470454093</v>
+        <v>113.4090732173363</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>81.88742391317641</v>
+        <v>82.48081104298203</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>100.750572096468</v>
+        <v>102.9945946821954</v>
       </c>
     </row>
     <row r="2483" spans="1:4">

--- a/IPC2024_base2010/indprod_2_2024.xlsx
+++ b/IPC2024_base2010/indprod_2_2024.xlsx
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>1156.636762777282</v>
+        <v>1186.66367769881</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>142.519437482818</v>
+        <v>142.6056756741071</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2588,7 +2588,7 @@
         <v>106</v>
       </c>
       <c r="D96">
-        <v>135.0704277086681</v>
+        <v>138.896635859255</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>148.0923110043094</v>
+        <v>156.76554919596</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>126.5702287273051</v>
+        <v>130.0247486299361</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>128.2596088288712</v>
+        <v>125.8265098523413</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>87.50242660301303</v>
+        <v>94.93565576210666</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>90.7536635387189</v>
+        <v>102.2976674942843</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>128.4302795703319</v>
+        <v>136.5609984952464</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.8078327513671</v>
+        <v>113.9442672210322</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5780,7 +5780,7 @@
         <v>55</v>
       </c>
       <c r="D324">
-        <v>417.9095079164761</v>
+        <v>428.7586644044428</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6116,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="D348">
-        <v>175.3375364646667</v>
+        <v>175.6172528191136</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6494,7 +6494,7 @@
         <v>106</v>
       </c>
       <c r="D375">
-        <v>133.5605114616976</v>
+        <v>137.343947452983</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>181.6184816469385</v>
+        <v>192.2552280157894</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>152.5660096657413</v>
+        <v>156.7300403556977</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>134.9637409702232</v>
+        <v>132.403463864892</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>114.377105</v>
+        <v>124.0933067674769</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>81.90885841008279</v>
+        <v>92.32778970841476</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>128.38530850793</v>
+        <v>137.6262805464508</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.1005</v>
+        <v>116.2157620554495</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -9686,7 +9686,7 @@
         <v>55</v>
       </c>
       <c r="D603">
-        <v>1026.432177273483</v>
+        <v>1053.078910847561</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -10022,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="D627">
-        <v>118.7889852096738</v>
+        <v>118.798348205021</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10400,7 +10400,7 @@
         <v>106</v>
       </c>
       <c r="D654">
-        <v>171.1231968683115</v>
+        <v>175.97069</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>131.8376159147768</v>
+        <v>139.5588746195244</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>123.3269008652931</v>
+        <v>126.6928996301911</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>122.3856166955694</v>
+        <v>120.063948</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>66.091302</v>
+        <v>71.70568107793916</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>93.11792844891993</v>
+        <v>104.9626704949506</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>127.1897687108015</v>
+        <v>131.5078922004701</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.456775</v>
+        <v>102.6021499896183</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -13592,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="D882">
-        <v>546.9424625503324</v>
+        <v>561.1413842157096</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -13928,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="D906">
-        <v>138.1434969969963</v>
+        <v>138.1859179513571</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -14306,7 +14306,7 @@
         <v>106</v>
       </c>
       <c r="D933">
-        <v>133.9319306305329</v>
+        <v>137.725888</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>142.2040025204257</v>
+        <v>150.5323834964632</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>137.3990588960511</v>
+        <v>141.1491333672114</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>68.463735</v>
+        <v>74.2796494963065</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>98.62076994613983</v>
+        <v>111.1654817954134</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>97.97313897369068</v>
+        <v>97.97313897369067</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>117.6667350046358</v>
+        <v>123.7185864239981</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.3973549957902</v>
+        <v>106.5408060219988</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -17498,7 +17498,7 @@
         <v>55</v>
       </c>
       <c r="D1161">
-        <v>6642.729406377621</v>
+        <v>6815.178248703104</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -17834,7 +17834,7 @@
         <v>79</v>
       </c>
       <c r="D1185">
-        <v>132.0737251094786</v>
+        <v>132.1154201637061</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -18212,7 +18212,7 @@
         <v>106</v>
       </c>
       <c r="D1212">
-        <v>128.384491730999</v>
+        <v>132.021304</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>145.4366865770693</v>
+        <v>153.9543943225489</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>128.0148782248932</v>
+        <v>131.5088273874057</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>83.28362199999999</v>
+        <v>90.35846862492794</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>128.9380295249639</v>
+        <v>135.4176681039065</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.804858</v>
+        <v>128.973125381922</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -21404,7 +21404,7 @@
         <v>55</v>
       </c>
       <c r="D1440">
-        <v>895.2112942785864</v>
+        <v>918.4514628735652</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>139.4100709764728</v>
+        <v>139.4506774460543</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -22118,7 +22118,7 @@
         <v>106</v>
       </c>
       <c r="D1491">
-        <v>127.6274138578674</v>
+        <v>131.24278</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>145.3819698686521</v>
+        <v>153.8964730517748</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>120.0426377678117</v>
+        <v>123.3189981370948</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>100.644007</v>
+        <v>109.1935980977932</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>97.82431625119315</v>
+        <v>110.2677179797907</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>142.63030137139</v>
+        <v>155.6230982090338</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.138971</v>
+        <v>113.2862626710348</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -25310,7 +25310,7 @@
         <v>55</v>
       </c>
       <c r="D1719">
-        <v>377.1609211412235</v>
+        <v>386.9522223131141</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>133.8862904988233</v>
+        <v>133.9259913258339</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -26024,7 +26024,7 @@
         <v>106</v>
       </c>
       <c r="D1770">
-        <v>147.2693461471443</v>
+        <v>151.4411192148595</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>127.1182936116845</v>
+        <v>134.5631584499287</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>120.9607173715791</v>
+        <v>124.2621351678361</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>142.7937850887101</v>
+        <v>140.0849711797443</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>53.008748</v>
+        <v>57.51177936287055</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>93.76247598587037</v>
+        <v>105.6892054583693</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.76443171376435</v>
+        <v>91.76443171376434</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>132.4580664597604</v>
+        <v>138.6286191679552</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>114.9787736971628</v>
+        <v>115.1386927410049</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -29216,7 +29216,7 @@
         <v>55</v>
       </c>
       <c r="D1998">
-        <v>192.1312103446807</v>
+        <v>197.1190403120919</v>
       </c>
     </row>
     <row r="1999" spans="1:4">
@@ -29552,7 +29552,7 @@
         <v>79</v>
       </c>
       <c r="D2022">
-        <v>182.933143919214</v>
+        <v>183.0995828051608</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -29930,7 +29930,7 @@
         <v>106</v>
       </c>
       <c r="D2049">
-        <v>98.23358760375613</v>
+        <v>101.0163</v>
       </c>
     </row>
     <row r="2050" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>142.8551176997758</v>
+        <v>151.221632168379</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>123.2964336789609</v>
+        <v>126.6616008936387</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>138.8503063929394</v>
+        <v>136.2163007113357</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>53.882335</v>
+        <v>58.45957656038731</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>87.17221005948231</v>
+        <v>98.26064768836893</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>112.5457265420942</v>
+        <v>114.2093176793413</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.5886521851069</v>
+        <v>100.7218984110108</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -33122,7 +33122,7 @@
         <v>55</v>
       </c>
       <c r="D2277">
-        <v>1425.06757883357</v>
+        <v>1462.063102686986</v>
       </c>
     </row>
     <row r="2278" spans="1:4">
@@ -33458,7 +33458,7 @@
         <v>79</v>
       </c>
       <c r="D2301">
-        <v>134.9935689761936</v>
+        <v>135.1163708824807</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -33836,7 +33836,7 @@
         <v>106</v>
       </c>
       <c r="D2328">
-        <v>137.8869439722438</v>
+        <v>141.792937</v>
       </c>
     </row>
     <row r="2329" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>116.7003593461234</v>
+        <v>123.5350829505831</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>114.1194973662515</v>
+        <v>117.2341956558416</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>123.9765835121846</v>
+        <v>121.624734</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>60.546817</v>
+        <v>65.69019853908075</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>96.98497226925095</v>
+        <v>109.3216081674698</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.81986320918371</v>
+        <v>96.81986320918369</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>113.4090732173363</v>
+        <v>115.5431753546508</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.460662</v>
+        <v>112.6166572580548</v>
       </c>
     </row>
     <row r="2476" spans="1:4">

--- a/IPC2024_base2010/indprod_2_2024.xlsx
+++ b/IPC2024_base2010/indprod_2_2024.xlsx
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>189.7095920183973</v>
+        <v>189.8520049376112</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>154.2713970043199</v>
+        <v>153.7471161922329</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>356.8766439143681</v>
+        <v>356.9240856724249</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>489.8041170464701</v>
+        <v>489.5130968734986</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>482.1600377984956</v>
+        <v>550.5826475895069</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>1186.66367769881</v>
+        <v>1156.636762777282</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
       <c r="D56">
-        <v>177.7472556722856</v>
+        <v>182.3046927117145</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>155.2343508646915</v>
+        <v>155.1761702225236</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>70</v>
       </c>
       <c r="D60">
-        <v>676.7577707240155</v>
+        <v>670.75218514448</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>72</v>
       </c>
       <c r="D62">
-        <v>405.4275910558132</v>
+        <v>364.9171806017251</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>142.6056756741071</v>
+        <v>142.519437482818</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>122.7845408301321</v>
+        <v>120.1064453384246</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="D77">
-        <v>119.5469437716674</v>
+        <v>117.8377062929355</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2336,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="D78">
-        <v>144.5795895666976</v>
+        <v>136.5220759967912</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.141864743683</v>
+        <v>120.044649456182</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>135.4168517915993</v>
+        <v>134.3648591317856</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2798,7 +2798,7 @@
         <v>121</v>
       </c>
       <c r="D111">
-        <v>152.7734568811492</v>
+        <v>151.4160021167002</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>130.2290547015324</v>
+        <v>129.749472004551</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>156.76554919596</v>
+        <v>158.2987238025991</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3190,7 +3190,7 @@
         <v>149</v>
       </c>
       <c r="D139">
-        <v>125.4937904957075</v>
+        <v>128.9559589058384</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3218,7 +3218,7 @@
         <v>151</v>
       </c>
       <c r="D141">
-        <v>137.9186992554033</v>
+        <v>135.6540476388257</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3274,7 +3274,7 @@
         <v>155</v>
       </c>
       <c r="D145">
-        <v>137.0328628549107</v>
+        <v>138.5356408694001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>130.0247486299361</v>
+        <v>134.1355720539999</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3442,7 +3442,7 @@
         <v>167</v>
       </c>
       <c r="D157">
-        <v>133.8458597992697</v>
+        <v>132.3386706271776</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>87.50242660301303</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>102.2976674942843</v>
+        <v>93.46063553284237</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4184,7 +4184,7 @@
         <v>220</v>
       </c>
       <c r="D210">
-        <v>94.99295416406622</v>
+        <v>95.11240778678798</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>81.00639874570585</v>
+        <v>83.24123278528683</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>115.1176009148734</v>
+        <v>120.5027467771931</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4324,7 +4324,7 @@
         <v>230</v>
       </c>
       <c r="D220">
-        <v>138.4421307273663</v>
+        <v>114.7323575508408</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>110.8793417852435</v>
+        <v>109.5924861325384</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>136.5609984952464</v>
+        <v>122.1408327782662</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>127.7526861441812</v>
+        <v>126.7183270449411</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>230.3170376843066</v>
+        <v>228.9405409952795</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.9442672210322</v>
+        <v>113.8078327513671</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>115.4124035006222</v>
+        <v>112.3364558513073</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4828,7 +4828,7 @@
         <v>266</v>
       </c>
       <c r="D256">
-        <v>149.4040711760697</v>
+        <v>151.0135368666566</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>125.4347699695425</v>
+        <v>131.8897223108406</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>138.1963120556514</v>
+        <v>127.4768366701283</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5038,7 +5038,7 @@
         <v>281</v>
       </c>
       <c r="D271">
-        <v>115.3898541983911</v>
+        <v>106.8745260369328</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>120.876543321771</v>
+        <v>119.7225796332061</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5066,7 +5066,7 @@
         <v>283</v>
       </c>
       <c r="D273">
-        <v>109.1150255003804</v>
+        <v>110.3445067453738</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>124.9681967850001</v>
+        <v>141.1194907667752</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>172.8506696155764</v>
+        <v>173.0233630742493</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.5302642186121</v>
+        <v>144.2677458715782</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>152.5469337023304</v>
+        <v>152.6390652093107</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>321.293530985801</v>
+        <v>321.2105719680852</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5766,7 +5766,7 @@
         <v>54</v>
       </c>
       <c r="D323">
-        <v>330.9557737569658</v>
+        <v>377.9212125960071</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5780,7 +5780,7 @@
         <v>55</v>
       </c>
       <c r="D324">
-        <v>428.7586644044428</v>
+        <v>417.9095079164761</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5934,7 +5934,7 @@
         <v>66</v>
       </c>
       <c r="D335">
-        <v>185.3979173645106</v>
+        <v>190.1515172579898</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>168.137308169679</v>
+        <v>168.0275386081547</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5990,7 +5990,7 @@
         <v>70</v>
       </c>
       <c r="D339">
-        <v>218.0331116254889</v>
+        <v>216.0982738331745</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6018,7 +6018,7 @@
         <v>72</v>
       </c>
       <c r="D341">
-        <v>1259.247359275852</v>
+        <v>1040.054858708847</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6116,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="D348">
-        <v>175.6172528191136</v>
+        <v>175.3375364646667</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>125.5406283241134</v>
+        <v>122.1043675600507</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6228,7 +6228,7 @@
         <v>87</v>
       </c>
       <c r="D356">
-        <v>117.8736369173433</v>
+        <v>116.1883237540192</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6242,7 +6242,7 @@
         <v>88</v>
       </c>
       <c r="D357">
-        <v>150.8655252421704</v>
+        <v>142.4576924317925</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.385029537144</v>
+        <v>121.1820627975494</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>142.5560229820493</v>
+        <v>141.9559449347629</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6704,7 +6704,7 @@
         <v>121</v>
       </c>
       <c r="D390">
-        <v>155.6229183976108</v>
+        <v>154.240145</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>134.6964975424716</v>
+        <v>134.200463</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>192.2552280157894</v>
+        <v>194.1354933872261</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7096,7 +7096,7 @@
         <v>149</v>
       </c>
       <c r="D418">
-        <v>135.6495157419994</v>
+        <v>139.391864</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7124,7 +7124,7 @@
         <v>151</v>
       </c>
       <c r="D420">
-        <v>139.4254606641959</v>
+        <v>137.3659353161155</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7180,7 +7180,7 @@
         <v>155</v>
       </c>
       <c r="D424">
-        <v>141.6928490051334</v>
+        <v>143.246731</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>156.7300403556977</v>
+        <v>161.6851702670223</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7348,7 +7348,7 @@
         <v>167</v>
       </c>
       <c r="D436">
-        <v>144.0012997975766</v>
+        <v>142.3797539376779</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>114.377105</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>92.32778970841476</v>
+        <v>84.35201031316957</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>91.054453686285</v>
+        <v>91.1689546453666</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>86.299844039432</v>
+        <v>88.68071557620151</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>115.05362116612</v>
+        <v>120.4357740866434</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8230,7 +8230,7 @@
         <v>230</v>
       </c>
       <c r="D499">
-        <v>137.1254908234968</v>
+        <v>113.6412070504635</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>108.3908122353773</v>
+        <v>107.1328382324602</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>137.6262805464508</v>
+        <v>121.2533906330986</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>135.5635667742353</v>
+        <v>134.164947206858</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>296.4590418538444</v>
+        <v>294.6872454915479</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.2157620554495</v>
+        <v>116.1005</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>115.1610202490992</v>
+        <v>112.0917724145195</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8734,7 +8734,7 @@
         <v>266</v>
       </c>
       <c r="D535">
-        <v>164.7041383982518</v>
+        <v>167.106644508797</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>133.8798042513838</v>
+        <v>139.7187249832537</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>151.0240841330415</v>
+        <v>139.3095967606622</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8944,7 +8944,7 @@
         <v>281</v>
       </c>
       <c r="D550">
-        <v>110.1466940774176</v>
+        <v>102.018291</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>123.2745263421435</v>
+        <v>122.0976699958697</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8972,7 +8972,7 @@
         <v>283</v>
       </c>
       <c r="D552">
-        <v>110.5072221838475</v>
+        <v>111.7523903583341</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>127.1091477672755</v>
+        <v>143.5371451792424</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>236.6599891606438</v>
+        <v>236.8100929811304</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>159.1211632220398</v>
+        <v>158.9839477671033</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -9322,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="D577">
-        <v>230.5125706982203</v>
+        <v>230.5398236822885</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>653.3935728015382</v>
+        <v>653.1508107266486</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9672,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="D602">
-        <v>1247.713190230327</v>
+        <v>1424.774302835238</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -9686,7 +9686,7 @@
         <v>55</v>
       </c>
       <c r="D603">
-        <v>1053.078910847561</v>
+        <v>1026.432177273483</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -9840,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="D614">
-        <v>149.4467441022711</v>
+        <v>153.2785564383754</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9854,7 +9854,7 @@
         <v>67</v>
       </c>
       <c r="D615">
-        <v>132.4378532306416</v>
+        <v>132.4046001697628</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9896,7 +9896,7 @@
         <v>70</v>
       </c>
       <c r="D618">
-        <v>462.7020610193725</v>
+        <v>458.5960175493339</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9924,7 +9924,7 @@
         <v>72</v>
       </c>
       <c r="D620">
-        <v>240.5691064868592</v>
+        <v>229.8604833249634</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10022,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="D627">
-        <v>118.798348205021</v>
+        <v>118.7889852096738</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10120,7 +10120,7 @@
         <v>86</v>
       </c>
       <c r="D634">
-        <v>115.2377108183582</v>
+        <v>113.7535689056219</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10134,7 +10134,7 @@
         <v>87</v>
       </c>
       <c r="D635">
-        <v>155.9227099122942</v>
+        <v>153.6933853377023</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>88</v>
       </c>
       <c r="D636">
-        <v>132.9611187121851</v>
+        <v>125.55111</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.3696875984658</v>
+        <v>120.3143563575878</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>124.7603619855351</v>
+        <v>123.1913955160916</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10610,7 +10610,7 @@
         <v>121</v>
       </c>
       <c r="D669">
-        <v>188.358465144087</v>
+        <v>186.684823</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>102.6818541265107</v>
+        <v>102.303717</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>139.5588746195244</v>
+        <v>140.923767121705</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11002,7 +11002,7 @@
         <v>149</v>
       </c>
       <c r="D697">
-        <v>130.1863128838789</v>
+        <v>133.7779403111611</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -11030,7 +11030,7 @@
         <v>151</v>
       </c>
       <c r="D699">
-        <v>140.6786898859526</v>
+        <v>139.19785</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -11086,7 +11086,7 @@
         <v>155</v>
       </c>
       <c r="D703">
-        <v>141.7556823576027</v>
+        <v>143.3102534176958</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>126.6928996301911</v>
+        <v>130.6983843163767</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11254,7 +11254,7 @@
         <v>167</v>
       </c>
       <c r="D715">
-        <v>118.6815838180426</v>
+        <v>117.345154</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>66.091302</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>104.9626704949506</v>
+        <v>95.895421</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.292048931255</v>
+        <v>92.40810616613385</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>63.55053761649797</v>
+        <v>65.303793</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>91.27054476549671</v>
+        <v>95.54013683994442</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12136,7 +12136,7 @@
         <v>230</v>
       </c>
       <c r="D778">
-        <v>159.8477384357652</v>
+        <v>132.472014</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>108.2606240505716</v>
+        <v>107.004161</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>131.5078922004701</v>
+        <v>123.8106546965028</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>117.8064816185741</v>
+        <v>117.1002843510389</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>151.7531552876723</v>
+        <v>150.846198</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.6021499896183</v>
+        <v>102.456775</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>121.1683352365574</v>
+        <v>117.9389816780355</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12640,7 +12640,7 @@
         <v>266</v>
       </c>
       <c r="D814">
-        <v>137.8545547875489</v>
+        <v>138.898642471619</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>98.38337151222586</v>
+        <v>106.3050482272678</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>131.3168814931141</v>
+        <v>121.131023</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12850,7 +12850,7 @@
         <v>281</v>
       </c>
       <c r="D829">
-        <v>119.5224919595727</v>
+        <v>110.702191</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>119.6044525849414</v>
+        <v>118.4626330765335</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12878,7 +12878,7 @@
         <v>283</v>
       </c>
       <c r="D831">
-        <v>100.2648493609759</v>
+        <v>101.394609</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>106.3704287203103</v>
+        <v>120.118087</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>195.9643543287582</v>
+        <v>196.1279414238896</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>158.7472083099211</v>
+        <v>158.2636493337083</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -13228,7 +13228,7 @@
         <v>29</v>
       </c>
       <c r="D856">
-        <v>186.5311786027667</v>
+        <v>186.5516464039547</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>470.5240269980622</v>
+        <v>470.1452815267615</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13578,7 +13578,7 @@
         <v>54</v>
       </c>
       <c r="D881">
-        <v>310.7694751273332</v>
+        <v>354.87030652075</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -13592,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="D882">
-        <v>561.1413842157096</v>
+        <v>546.9424625503324</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -13746,7 +13746,7 @@
         <v>66</v>
       </c>
       <c r="D893">
-        <v>178.1675113134371</v>
+        <v>182.7357237013673</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -13760,7 +13760,7 @@
         <v>67</v>
       </c>
       <c r="D894">
-        <v>153.0347409803861</v>
+        <v>153.0003532658455</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -13802,7 +13802,7 @@
         <v>70</v>
       </c>
       <c r="D897">
-        <v>383.173141798777</v>
+        <v>379.7728423202942</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -13830,7 +13830,7 @@
         <v>72</v>
       </c>
       <c r="D899">
-        <v>357.5894149224774</v>
+        <v>334.3103111321621</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -13928,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="D906">
-        <v>138.1859179513571</v>
+        <v>138.1434969969963</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -14026,7 +14026,7 @@
         <v>86</v>
       </c>
       <c r="D913">
-        <v>130.8336664492486</v>
+        <v>126.6368338609648</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -14040,7 +14040,7 @@
         <v>87</v>
       </c>
       <c r="D914">
-        <v>134.6496525362732</v>
+        <v>132.7244821776499</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -14054,7 +14054,7 @@
         <v>88</v>
       </c>
       <c r="D915">
-        <v>165.312612200237</v>
+        <v>156.0996339363473</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>133.8095886864442</v>
+        <v>133.0154009276984</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14516,7 +14516,7 @@
         <v>121</v>
       </c>
       <c r="D948">
-        <v>146.860174830417</v>
+        <v>145.555262</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>150.5323834964632</v>
+        <v>152.0045974429417</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>149</v>
       </c>
       <c r="D976">
-        <v>117.9507222719202</v>
+        <v>121.2047897679206</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14936,7 +14936,7 @@
         <v>151</v>
       </c>
       <c r="D978">
-        <v>141.5422219768953</v>
+        <v>139.2660654151207</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14992,7 +14992,7 @@
         <v>155</v>
       </c>
       <c r="D982">
-        <v>147.8074438641475</v>
+        <v>149.4283818814179</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>141.1491333672114</v>
+        <v>145.611662</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15160,7 +15160,7 @@
         <v>167</v>
       </c>
       <c r="D994">
-        <v>120.103708846776</v>
+        <v>118.751265</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>68.463735</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>111.1654817954134</v>
+        <v>101.5623995385276</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>97.97313897369067</v>
+        <v>98.09634017827285</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -15958,7 +15958,7 @@
         <v>224</v>
       </c>
       <c r="D1051">
-        <v>55.02863731469342</v>
+        <v>56.54678740810382</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -16042,7 +16042,7 @@
         <v>230</v>
       </c>
       <c r="D1057">
-        <v>171.7716704529839</v>
+        <v>142.3538384447969</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>131.5514636120772</v>
+        <v>130.0246891756027</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>123.7185864239981</v>
+        <v>112.9522817982912</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>122.2170512667978</v>
+        <v>121.363635730326</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>195.341823534796</v>
+        <v>194.1743572629663</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>118.6074515366955</v>
+        <v>115.4463501240248</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16546,7 +16546,7 @@
         <v>266</v>
       </c>
       <c r="D1093">
-        <v>134.5313266490201</v>
+        <v>135.7009584374483</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>122.3615786920411</v>
+        <v>128.3711629209133</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>137.0310917226855</v>
+        <v>126.401999</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16756,7 +16756,7 @@
         <v>281</v>
       </c>
       <c r="D1108">
-        <v>119.8628348621196</v>
+        <v>111.0174179032006</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>150.5555998718297</v>
+        <v>149.1183011984245</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -16784,7 +16784,7 @@
         <v>283</v>
       </c>
       <c r="D1110">
-        <v>108.7692577805511</v>
+        <v>109.994843</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>127.8812885126514</v>
+        <v>144.4090798921614</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>271.4197636401083</v>
+        <v>271.5699458590223</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>189.9636115796057</v>
+        <v>188.9739619435249</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>1163.008570589107</v>
+        <v>1163.051668968904</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1252.051818189659</v>
+        <v>1251.016013107681</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17484,7 +17484,7 @@
         <v>54</v>
       </c>
       <c r="D1160">
-        <v>1986.956928434581</v>
+        <v>2268.923014231685</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -17498,7 +17498,7 @@
         <v>55</v>
       </c>
       <c r="D1161">
-        <v>6815.178248703104</v>
+        <v>6642.729406377621</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -17652,7 +17652,7 @@
         <v>66</v>
       </c>
       <c r="D1172">
-        <v>191.1395499235452</v>
+        <v>196.0403651919813</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -17666,7 +17666,7 @@
         <v>67</v>
       </c>
       <c r="D1173">
-        <v>176.0489803796831</v>
+        <v>176.0267278799708</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -17708,7 +17708,7 @@
         <v>70</v>
       </c>
       <c r="D1176">
-        <v>367.2475891387147</v>
+        <v>363.9886138881002</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -17736,7 +17736,7 @@
         <v>72</v>
       </c>
       <c r="D1178">
-        <v>84917.85564587473</v>
+        <v>68856.49518274612</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -17834,7 +17834,7 @@
         <v>79</v>
       </c>
       <c r="D1185">
-        <v>132.1154201637061</v>
+        <v>132.0737251094786</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -17932,7 +17932,7 @@
         <v>86</v>
       </c>
       <c r="D1192">
-        <v>124.9578097214287</v>
+        <v>123.1655317190204</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -17946,7 +17946,7 @@
         <v>87</v>
       </c>
       <c r="D1193">
-        <v>110.9373233468143</v>
+        <v>109.351183</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -17960,7 +17960,7 @@
         <v>88</v>
       </c>
       <c r="D1194">
-        <v>137.0625514017092</v>
+        <v>129.4239672062838</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>135.4976969773213</v>
+        <v>134.3554740430233</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18422,7 +18422,7 @@
         <v>121</v>
       </c>
       <c r="D1227">
-        <v>134.9588527066925</v>
+        <v>133.759688</v>
       </c>
     </row>
     <row r="1228" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>153.9543943225489</v>
+        <v>155.4600756993977</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18814,7 +18814,7 @@
         <v>149</v>
       </c>
       <c r="D1255">
-        <v>110.5033843749976</v>
+        <v>113.551992</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -18842,7 +18842,7 @@
         <v>151</v>
       </c>
       <c r="D1257">
-        <v>126.1066384191713</v>
+        <v>123.9493985050365</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -18898,7 +18898,7 @@
         <v>155</v>
       </c>
       <c r="D1261">
-        <v>129.9198422952658</v>
+        <v>131.344615</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>131.5088273874057</v>
+        <v>135.666571</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>83.28362199999999</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19808,7 +19808,7 @@
         <v>220</v>
       </c>
       <c r="D1326">
-        <v>107.8478339778015</v>
+        <v>107.9834526095696</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -19864,7 +19864,7 @@
         <v>224</v>
       </c>
       <c r="D1330">
-        <v>61.56761173436393</v>
+        <v>63.2661614362411</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>99.15666445905337</v>
+        <v>103.795165410163</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>135.4176681039065</v>
+        <v>123.8887861228343</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>115.9786163666768</v>
+        <v>115.2880975222803</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>109.4227141519431</v>
+        <v>108.7687460163293</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>107.7840955543095</v>
+        <v>104.911456</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20452,7 +20452,7 @@
         <v>266</v>
       </c>
       <c r="D1372">
-        <v>153.5899967755524</v>
+        <v>154.9425393771223</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>109.5639036586013</v>
+        <v>117.0390406971025</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>159.7228691594537</v>
+        <v>147.333643</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20662,7 +20662,7 @@
         <v>281</v>
       </c>
       <c r="D1387">
-        <v>130.773149268248</v>
+        <v>121.122593</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>120.2186045194306</v>
+        <v>119.0709219294671</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20690,7 +20690,7 @@
         <v>283</v>
       </c>
       <c r="D1389">
-        <v>114.7525653439202</v>
+        <v>116.045569</v>
       </c>
     </row>
     <row r="1390" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>127.0240118317286</v>
+        <v>143.441006</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>218.5177370908722</v>
+        <v>218.6552969767298</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>148.0993712896161</v>
+        <v>147.1276348819321</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -21040,7 +21040,7 @@
         <v>29</v>
       </c>
       <c r="D1414">
-        <v>181.3012376210893</v>
+        <v>181.3138453001381</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>354.4741961249728</v>
+        <v>354.2455073845783</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21390,7 +21390,7 @@
         <v>54</v>
       </c>
       <c r="D1439">
-        <v>565.0649754033197</v>
+        <v>645.2525008878497</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -21404,7 +21404,7 @@
         <v>55</v>
       </c>
       <c r="D1440">
-        <v>918.4514628735652</v>
+        <v>895.2112942785864</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -21558,7 +21558,7 @@
         <v>66</v>
       </c>
       <c r="D1451">
-        <v>184.5749546155209</v>
+        <v>189.3074537561355</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -21572,7 +21572,7 @@
         <v>67</v>
       </c>
       <c r="D1452">
-        <v>138.3697791411918</v>
+        <v>138.3504132280718</v>
       </c>
     </row>
     <row r="1453" spans="1:4">
@@ -21614,7 +21614,7 @@
         <v>70</v>
       </c>
       <c r="D1455">
-        <v>720.6889995027797</v>
+        <v>714.2935657893058</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -21642,7 +21642,7 @@
         <v>72</v>
       </c>
       <c r="D1457">
-        <v>559.5852104627133</v>
+        <v>493.7012897777608</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>139.4506774460543</v>
+        <v>139.4100709764728</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -21866,7 +21866,7 @@
         <v>88</v>
       </c>
       <c r="D1473">
-        <v>142.4352063899097</v>
+        <v>134.4972006744511</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.2835950730869</v>
+        <v>118.2068640260536</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>127.4764980846197</v>
+        <v>126.4471308442269</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22328,7 +22328,7 @@
         <v>121</v>
       </c>
       <c r="D1506">
-        <v>148.5354775818311</v>
+        <v>147.215679</v>
       </c>
     </row>
     <row r="1507" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>124.5564878508925</v>
+        <v>124.097795</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>153.8964730517748</v>
+        <v>155.4015879558113</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22720,7 +22720,7 @@
         <v>149</v>
       </c>
       <c r="D1534">
-        <v>131.5610483738541</v>
+        <v>135.1906025046558</v>
       </c>
     </row>
     <row r="1535" spans="1:4">
@@ -22748,7 +22748,7 @@
         <v>151</v>
       </c>
       <c r="D1536">
-        <v>158.01719328673</v>
+        <v>155.0123597144631</v>
       </c>
     </row>
     <row r="1537" spans="1:4">
@@ -22804,7 +22804,7 @@
         <v>155</v>
       </c>
       <c r="D1540">
-        <v>147.374760022249</v>
+        <v>148.9909529896731</v>
       </c>
     </row>
     <row r="1541" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>123.3189981370948</v>
+        <v>127.2178145663951</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -22972,7 +22972,7 @@
         <v>167</v>
       </c>
       <c r="D1552">
-        <v>107.6303944205393</v>
+        <v>106.4184079959915</v>
       </c>
     </row>
     <row r="1553" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>100.644007</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>110.2677179797907</v>
+        <v>100.7421894709699</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23714,7 +23714,7 @@
         <v>220</v>
       </c>
       <c r="D1605">
-        <v>100.4700700725918</v>
+        <v>100.5964111675803</v>
       </c>
     </row>
     <row r="1606" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>73.51138123399956</v>
+        <v>75.53944</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>134.5161981144792</v>
+        <v>140.808801</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23854,7 +23854,7 @@
         <v>230</v>
       </c>
       <c r="D1615">
-        <v>132.0364165157723</v>
+        <v>109.423694</v>
       </c>
     </row>
     <row r="1616" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>155.6230982090338</v>
+        <v>132.6122301257224</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>134.0417091017935</v>
+        <v>132.9288761433453</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>151.9155442798669</v>
+        <v>151.0076164695083</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>102.7380729986172</v>
+        <v>99.99991900000001</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24358,7 +24358,7 @@
         <v>266</v>
       </c>
       <c r="D1651">
-        <v>129.3685001414639</v>
+        <v>130.7581706673903</v>
       </c>
     </row>
     <row r="1652" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>131.1971047994903</v>
+        <v>138.366731</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>111.2576150777623</v>
+        <v>102.627694</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>281</v>
       </c>
       <c r="D1666">
-        <v>131.7908013187202</v>
+        <v>122.0651462367667</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>117.9099083205429</v>
+        <v>116.784266</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>283</v>
       </c>
       <c r="D1668">
-        <v>107.0803242675873</v>
+        <v>108.286879</v>
       </c>
     </row>
     <row r="1669" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>122.8555697675805</v>
+        <v>138.733821</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>163.3497121451862</v>
+        <v>163.4311518970403</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>149.146555744409</v>
+        <v>148.6675829857409</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="D1693">
-        <v>183.284135930137</v>
+        <v>183.3108014582963</v>
       </c>
     </row>
     <row r="1694" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>391.3215925757997</v>
+        <v>391.231708252568</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25296,7 +25296,7 @@
         <v>54</v>
       </c>
       <c r="D1718">
-        <v>233.513973435219</v>
+        <v>266.651592135556</v>
       </c>
     </row>
     <row r="1719" spans="1:4">
@@ -25310,7 +25310,7 @@
         <v>55</v>
       </c>
       <c r="D1719">
-        <v>386.9522223131141</v>
+        <v>377.1609211412235</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -25464,7 +25464,7 @@
         <v>66</v>
       </c>
       <c r="D1730">
-        <v>152.1669138427212</v>
+        <v>156.0684712912425</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>138.4674491836916</v>
+        <v>138.4435570988018</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -25520,7 +25520,7 @@
         <v>70</v>
       </c>
       <c r="D1734">
-        <v>259.2405020234997</v>
+        <v>256.9399875884483</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
@@ -25548,7 +25548,7 @@
         <v>72</v>
       </c>
       <c r="D1736">
-        <v>145.4924165764533</v>
+        <v>138.116038969949</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>133.9259913258339</v>
+        <v>133.8862904988233</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -25744,7 +25744,7 @@
         <v>86</v>
       </c>
       <c r="D1750">
-        <v>117.3725014079754</v>
+        <v>115.5879427212424</v>
       </c>
     </row>
     <row r="1751" spans="1:4">
@@ -25772,7 +25772,7 @@
         <v>88</v>
       </c>
       <c r="D1752">
-        <v>125.2543630821124</v>
+        <v>118.2738568208291</v>
       </c>
     </row>
     <row r="1753" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.0603394068746</v>
+        <v>118.9886885764735</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>139.3649167659563</v>
+        <v>138.1819127841959</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26234,7 +26234,7 @@
         <v>121</v>
       </c>
       <c r="D1785">
-        <v>166.6093876789631</v>
+        <v>165.128995</v>
       </c>
     </row>
     <row r="1786" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.50482820660835</v>
+        <v>97.1457560426645</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>134.5631584499287</v>
+        <v>135.8791926078336</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26626,7 +26626,7 @@
         <v>149</v>
       </c>
       <c r="D1813">
-        <v>109.1645454285477</v>
+        <v>112.1762166769505</v>
       </c>
     </row>
     <row r="1814" spans="1:4">
@@ -26654,7 +26654,7 @@
         <v>151</v>
       </c>
       <c r="D1815">
-        <v>120.1131251175332</v>
+        <v>117.8313572309179</v>
       </c>
     </row>
     <row r="1816" spans="1:4">
@@ -26710,7 +26710,7 @@
         <v>155</v>
       </c>
       <c r="D1819">
-        <v>122.0393915557857</v>
+        <v>123.3777428878007</v>
       </c>
     </row>
     <row r="1820" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>124.2621351678361</v>
+        <v>128.1907695344055</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26878,7 +26878,7 @@
         <v>167</v>
       </c>
       <c r="D1831">
-        <v>123.0366439721165</v>
+        <v>121.6511734178279</v>
       </c>
     </row>
     <row r="1832" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>53.008748</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>105.6892054583693</v>
+        <v>96.55919390001979</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.76443171376434</v>
+        <v>91.8798254700874</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27676,7 +27676,7 @@
         <v>224</v>
       </c>
       <c r="D1888">
-        <v>59.7515899592002</v>
+        <v>61.40003859075949</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>105.4377518112289</v>
+        <v>110.370079</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27760,7 +27760,7 @@
         <v>230</v>
       </c>
       <c r="D1894">
-        <v>132.807373103051</v>
+        <v>110.0626155939043</v>
       </c>
     </row>
     <row r="1895" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>131.683900370077</v>
+        <v>130.1555888845191</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>138.6286191679552</v>
+        <v>127.6451092192329</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>116.3680785797134</v>
+        <v>115.6382826445743</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>209.8405507918084</v>
+        <v>208.5864324413264</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.1386927410049</v>
+        <v>114.9787736971628</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>129.4400670542597</v>
+        <v>125.990257</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28264,7 +28264,7 @@
         <v>266</v>
       </c>
       <c r="D1930">
-        <v>138.78526996592</v>
+        <v>139.6466408749549</v>
       </c>
     </row>
     <row r="1931" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>118.6575534685236</v>
+        <v>125.124431078202</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>134.2174851119356</v>
+        <v>123.8066354549285</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28474,7 +28474,7 @@
         <v>281</v>
       </c>
       <c r="D1945">
-        <v>121.7056376487833</v>
+        <v>112.7242289202733</v>
       </c>
     </row>
     <row r="1946" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>140.0543296441102</v>
+        <v>138.7172827167724</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -28502,7 +28502,7 @@
         <v>283</v>
       </c>
       <c r="D1947">
-        <v>112.1893577800248</v>
+        <v>113.4534798442948</v>
       </c>
     </row>
     <row r="1948" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>108.2764219854843</v>
+        <v>122.270417</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>170.160450551045</v>
+        <v>170.204418155976</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>168.9983116423664</v>
+        <v>168.5374826905785</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -28852,7 +28852,7 @@
         <v>29</v>
       </c>
       <c r="D1972">
-        <v>285.6203448604415</v>
+        <v>285.6759053403861</v>
       </c>
     </row>
     <row r="1973" spans="1:4">
@@ -28978,7 +28978,7 @@
         <v>38</v>
       </c>
       <c r="D1981">
-        <v>739.96284212577</v>
+        <v>739.0509077700443</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -29202,7 +29202,7 @@
         <v>54</v>
       </c>
       <c r="D1997">
-        <v>367.4630431460876</v>
+        <v>419.6091739797465</v>
       </c>
     </row>
     <row r="1998" spans="1:4">
@@ -29216,7 +29216,7 @@
         <v>55</v>
       </c>
       <c r="D1998">
-        <v>197.1190403120919</v>
+        <v>192.1312103446807</v>
       </c>
     </row>
     <row r="1999" spans="1:4">
@@ -29370,7 +29370,7 @@
         <v>66</v>
       </c>
       <c r="D2009">
-        <v>180.7184935392751</v>
+        <v>185.3521130742186</v>
       </c>
     </row>
     <row r="2010" spans="1:4">
@@ -29384,7 +29384,7 @@
         <v>67</v>
       </c>
       <c r="D2010">
-        <v>166.2935938045451</v>
+        <v>166.2894119772814</v>
       </c>
     </row>
     <row r="2011" spans="1:4">
@@ -29426,7 +29426,7 @@
         <v>70</v>
       </c>
       <c r="D2013">
-        <v>685.7373491264989</v>
+        <v>679.6520782756638</v>
       </c>
     </row>
     <row r="2014" spans="1:4">
@@ -29454,7 +29454,7 @@
         <v>72</v>
       </c>
       <c r="D2015">
-        <v>126.7667705350038</v>
+        <v>123.9195563514397</v>
       </c>
     </row>
     <row r="2016" spans="1:4">
@@ -29552,7 +29552,7 @@
         <v>79</v>
       </c>
       <c r="D2022">
-        <v>183.0995828051608</v>
+        <v>182.933143919214</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -29650,7 +29650,7 @@
         <v>86</v>
       </c>
       <c r="D2029">
-        <v>119.1175854672977</v>
+        <v>115.3233621515839</v>
       </c>
     </row>
     <row r="2030" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>127.5434715071334</v>
+        <v>127.4473645177403</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>132.6627072711991</v>
+        <v>131.4352931983964</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30140,7 +30140,7 @@
         <v>121</v>
       </c>
       <c r="D2064">
-        <v>88.87528633640846</v>
+        <v>88.085593</v>
       </c>
     </row>
     <row r="2065" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>110.8050757761706</v>
+        <v>110.397024</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>151.221632168379</v>
+        <v>152.700587</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30532,7 +30532,7 @@
         <v>149</v>
       </c>
       <c r="D2092">
-        <v>114.3231406565801</v>
+        <v>117.4771291094327</v>
       </c>
     </row>
     <row r="2093" spans="1:4">
@@ -30560,7 +30560,7 @@
         <v>151</v>
       </c>
       <c r="D2094">
-        <v>123.3111782153398</v>
+        <v>121.474907</v>
       </c>
     </row>
     <row r="2095" spans="1:4">
@@ -30616,7 +30616,7 @@
         <v>155</v>
       </c>
       <c r="D2098">
-        <v>151.1092002739481</v>
+        <v>152.7663471745365</v>
       </c>
     </row>
     <row r="2099" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>126.6616008936387</v>
+        <v>130.6660960483642</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30784,7 +30784,7 @@
         <v>167</v>
       </c>
       <c r="D2110">
-        <v>118.847556215756</v>
+        <v>117.5092574433724</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>53.882335</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>98.26064768836893</v>
+        <v>89.77235557532909</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31526,7 +31526,7 @@
         <v>220</v>
       </c>
       <c r="D2163">
-        <v>103.8767721443319</v>
+        <v>104.0073971665609</v>
       </c>
     </row>
     <row r="2164" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>92.1330424930882</v>
+        <v>94.67484243385681</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>124.6544322197596</v>
+        <v>130.4857064519637</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>100.2438937108675</v>
+        <v>99.08047211046826</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>114.2093176793413</v>
+        <v>111.2374262758303</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>126.962114897284</v>
+        <v>126.4805827018998</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>89.53425616950024</v>
+        <v>88.999152</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>113.8921303724373</v>
+        <v>110.8567007299666</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32170,7 +32170,7 @@
         <v>266</v>
       </c>
       <c r="D2209">
-        <v>137.7277541326297</v>
+        <v>138.2954749021246</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>114.729188934634</v>
+        <v>123.8109497187822</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>118.425876736057</v>
+        <v>109.239935</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>281</v>
       </c>
       <c r="D2224">
-        <v>123.7823098730238</v>
+        <v>114.6476507084504</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>125.8198314333494</v>
+        <v>124.618676</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32408,7 +32408,7 @@
         <v>283</v>
       </c>
       <c r="D2226">
-        <v>105.2133165791752</v>
+        <v>106.3988343285818</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>122.7835215165898</v>
+        <v>138.652461</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>171.2575478515762</v>
+        <v>171.437962874708</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>166.9466322499936</v>
+        <v>165.8648115130096</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -32758,7 +32758,7 @@
         <v>29</v>
       </c>
       <c r="D2251">
-        <v>214.8617179109902</v>
+        <v>214.8887554577117</v>
       </c>
     </row>
     <row r="2252" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>895.6751322938193</v>
+        <v>895.1587201117378</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -33108,7 +33108,7 @@
         <v>54</v>
       </c>
       <c r="D2276">
-        <v>589.1595096673983</v>
+        <v>672.7662544708387</v>
       </c>
     </row>
     <row r="2277" spans="1:4">
@@ -33122,7 +33122,7 @@
         <v>55</v>
       </c>
       <c r="D2277">
-        <v>1462.063102686986</v>
+        <v>1425.06757883357</v>
       </c>
     </row>
     <row r="2278" spans="1:4">
@@ -33276,7 +33276,7 @@
         <v>66</v>
       </c>
       <c r="D2288">
-        <v>167.9348879262687</v>
+        <v>172.240736</v>
       </c>
     </row>
     <row r="2289" spans="1:4">
@@ -33290,7 +33290,7 @@
         <v>67</v>
       </c>
       <c r="D2289">
-        <v>137.5905479697138</v>
+        <v>137.5076537203807</v>
       </c>
     </row>
     <row r="2290" spans="1:4">
@@ -33332,7 +33332,7 @@
         <v>70</v>
       </c>
       <c r="D2292">
-        <v>6759.370638025889</v>
+        <v>6699.387612212923</v>
       </c>
     </row>
     <row r="2293" spans="1:4">
@@ -33360,7 +33360,7 @@
         <v>72</v>
       </c>
       <c r="D2294">
-        <v>1056.267578235351</v>
+        <v>1041.089401659771</v>
       </c>
     </row>
     <row r="2295" spans="1:4">
@@ -33458,7 +33458,7 @@
         <v>79</v>
       </c>
       <c r="D2301">
-        <v>135.1163708824807</v>
+        <v>134.9935689761936</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -33556,7 +33556,7 @@
         <v>86</v>
       </c>
       <c r="D2308">
-        <v>119.2686569832004</v>
+        <v>118.0428538197828</v>
       </c>
     </row>
     <row r="2309" spans="1:4">
@@ -33570,7 +33570,7 @@
         <v>87</v>
       </c>
       <c r="D2309">
-        <v>106.1107112527616</v>
+        <v>104.59358</v>
       </c>
     </row>
     <row r="2310" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>134.3709220524687</v>
+        <v>133.251509601704</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34046,7 +34046,7 @@
         <v>121</v>
       </c>
       <c r="D2343">
-        <v>195.4743587747861</v>
+        <v>193.737489</v>
       </c>
     </row>
     <row r="2344" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>123.5350829505831</v>
+        <v>124.743262</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34438,7 +34438,7 @@
         <v>149</v>
       </c>
       <c r="D2371">
-        <v>123.7997221641564</v>
+        <v>127.215154</v>
       </c>
     </row>
     <row r="2372" spans="1:4">
@@ -34466,7 +34466,7 @@
         <v>151</v>
       </c>
       <c r="D2373">
-        <v>141.6363189568066</v>
+        <v>139.164136729105</v>
       </c>
     </row>
     <row r="2374" spans="1:4">
@@ -34522,7 +34522,7 @@
         <v>155</v>
       </c>
       <c r="D2377">
-        <v>117.4339949888591</v>
+        <v>118.721841</v>
       </c>
     </row>
     <row r="2378" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>117.2341956558416</v>
+        <v>120.9406367963273</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34690,7 +34690,7 @@
         <v>167</v>
       </c>
       <c r="D2389">
-        <v>132.7123791555475</v>
+        <v>131.2179536935586</v>
       </c>
     </row>
     <row r="2390" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>60.546817</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>109.3216081674698</v>
+        <v>99.87780979830228</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.81986320918369</v>
+        <v>96.9416141697001</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>87.35863794500138</v>
+        <v>89.76871987376097</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>110.9018537569401</v>
+        <v>116.089789</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35572,7 +35572,7 @@
         <v>230</v>
       </c>
       <c r="D2452">
-        <v>115.944578050648</v>
+        <v>96.08776400000001</v>
       </c>
     </row>
     <row r="2453" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>117.5067745351906</v>
+        <v>116.1430014949914</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>115.5431753546508</v>
+        <v>111.7324989940479</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>120.8275487778925</v>
+        <v>120.0757072210729</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>82.48081104298203</v>
+        <v>81.98786200000001</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6166572580548</v>
+        <v>112.460662</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>102.9945946821954</v>
+        <v>100.2496039204084</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36076,7 +36076,7 @@
         <v>266</v>
       </c>
       <c r="D2488">
-        <v>143.099333628805</v>
+        <v>144.1312333853755</v>
       </c>
     </row>
     <row r="2489" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>102.9977463641575</v>
+        <v>108.349868613219</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>120.0353302398397</v>
+        <v>110.724548</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36286,7 +36286,7 @@
         <v>281</v>
       </c>
       <c r="D2503">
-        <v>113.1933603495986</v>
+        <v>104.840125</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>143.3854883811158</v>
+        <v>142.016640112362</v>
       </c>
     </row>
     <row r="2505" spans="1:4">
@@ -36314,7 +36314,7 @@
         <v>283</v>
       </c>
       <c r="D2505">
-        <v>110.5366136497118</v>
+        <v>111.782113</v>
       </c>
     </row>
     <row r="2506" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>99.01662206693359</v>
+        <v>111.813850587697</v>
       </c>
     </row>
     <row r="2510" spans="1:4">
